--- a/data/long_dif/P37-Estudios-long_dif.xlsx
+++ b/data/long_dif/P37-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>32,02%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37,82%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31,64%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 57,25</t>
+          <t>29,63; 58,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,94; 34,21</t>
+          <t>20,2; 33,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,95; 41,1</t>
+          <t>18,81; 41,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,57; 39,63</t>
+          <t>27,46; 45,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,22; 45,57</t>
+          <t>26,52; 38,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,7; 34,91</t>
+          <t>24,35; 39,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30,87; 46,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25,14; 34,47</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24,87; 38,21</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>37,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33,37%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>39,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40,91%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,18; 41,72</t>
+          <t>21,98; 44,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,01; 56,05</t>
+          <t>36,98; 55,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,6; 40,3</t>
+          <t>32,44; 64,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,0; 39,89</t>
+          <t>24,02; 40,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,48; 38,78</t>
+          <t>28,38; 39,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,06; 45,09</t>
+          <t>29,87; 48,81</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27,68; 39,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34,01; 46,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33,74; 52,57</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>30,04%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,45%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,16; 35,06</t>
+          <t>16,39; 33,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,49; 36,18</t>
+          <t>22,29; 35,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,9; 40,86</t>
+          <t>14,32; 33,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,02; 39,11</t>
+          <t>24,63; 40,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,57; 35,41</t>
+          <t>27,58; 39,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,1; 35,53</t>
+          <t>22,01; 39,45</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22,81; 34,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26,72; 36,3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21,27; 33,64</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,5; 35,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,82; 35,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,43; 37,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,68; 33,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,36; 35,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,39; 32,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>30,57%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30,23%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,82%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,18%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,15; 46,55</t>
+          <t>23,58; 34,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,21; 49,14</t>
+          <t>25,69; 35,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,26; 44,76</t>
+          <t>21,7; 35,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,39; 49,32</t>
+          <t>26,55; 36,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,0; 44,4</t>
+          <t>25,27; 33,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,28; 47,26</t>
+          <t>25,46; 35,63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26,4; 34,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26,67; 32,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 34,36</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>39,09%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43,64%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>42,86%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,79; 35,17</t>
+          <t>35,27; 49,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,28; 31,82</t>
+          <t>37,61; 48,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,74; 31,84</t>
+          <t>38,59; 52,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,29; 29,68</t>
+          <t>37,62; 48,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,49; 31,55</t>
+          <t>40,57; 49,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,09; 29,79</t>
+          <t>33,68; 44,48</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38,52; 46,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>40,39; 47,29</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38,19; 46,92</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>30,34%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27,16%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26,54%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,55; 32,63</t>
+          <t>23,2; 38,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,21; 24,65</t>
+          <t>22,58; 32,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,45; 33,92</t>
+          <t>20,51; 31,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,99; 30,42</t>
+          <t>21,16; 31,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,23; 31,59</t>
+          <t>22,46; 29,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,44; 26,35</t>
+          <t>25,74; 36,49</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23,38; 31,64</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23,58; 29,8</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24,57; 32,25</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>60,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>50,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>52,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,44%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>45,31; 58,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>54,84; 65,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,0; 58,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,24; 55,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>48,34; 56,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,69; 58,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>27,16%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>28,07%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>25,99%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,74; 28,79</t>
+          <t>21,15; 33,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,34; 23,84</t>
+          <t>16,59; 25,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,28; 22,48</t>
+          <t>18,91; 33,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,46; 27,13</t>
+          <t>23,79; 34,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,82</t>
+          <t>22,36; 30,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,53; 24,57</t>
+          <t>22,28; 32,68</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>23,95; 31,97</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21,16; 27,11</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>22,03; 30,94</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51,81%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>54,74%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>52,09%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>27,44; 35,71</t>
+          <t>44,25; 57,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>23,45; 29,75</t>
+          <t>54,32; 65,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>28,35; 34,73</t>
+          <t>44,63; 58,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,09; 31,97</t>
+          <t>47,1; 58,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,87; 33,93</t>
+          <t>45,23; 55,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,78; 30,01</t>
+          <t>47,04; 57,12</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>47,3; 56,34</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>51,04; 58,33</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>47,48; 56,62</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>38,74; 46,88</t>
+          <t>16,08; 29,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>45,23; 52,56</t>
+          <t>15,31; 23,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>39,75; 46,26</t>
+          <t>18,81; 29,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>41,32; 47,23</t>
+          <t>14,27; 23,12</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>40,31; 45,55</t>
+          <t>19,25; 27,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>44,39; 49,18</t>
+          <t>16,56; 25,03</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 24,5</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>18,26; 24,35</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>18,7; 25,45</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,924 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>22,4; 29,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,8; 27,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>22,59; 28,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,02; 29,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>23,36; 28,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,78; 27,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>33,18%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>31,76%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>32,53%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>25,23; 44,29</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>24,78; 39,08</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>27,4; 39,78</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>37,82%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>38,28%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>38,03%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>29,44; 46,8</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>31,15; 46,37</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>32,08; 43,76</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>29,96%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>29,44%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>22,13; 37,79</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>22,56; 37,19</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>24,21; 34,85</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>30,77%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>26,55%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>27,45%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>29,15%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>31,15%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>28,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>27,24; 35,6</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>23,36; 29,71</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 32,56</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>28,26; 34,65</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>26,64; 31,68</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>26,43; 33,21</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>28,7; 33,74</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>25,95; 29,99</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>26,05; 31,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>42,81%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>48,45%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>47,81%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>43,2%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>44,12%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>43,01%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>46,25%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>38,72; 46,48</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>44,87; 52,11</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>43,08; 53,19</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>40,11; 46,46</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>41,15; 46,79</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>39,63; 46,96</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>40,52; 45,51</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>44,02; 48,44</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>42,47; 48,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>26,42%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>25,0%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>24,75%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>25,29%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>26,73%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>25,85%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>25,88%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>25,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>23,0; 30,99</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>22,08; 28,58</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>21,47; 29,36</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 28,65</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>24,47; 29,54</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>23,52; 30,23</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>23,55; 28,5</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>24,05; 28,03</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>23,36; 28,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
